--- a/Lead 2 oppr.xlsx
+++ b/Lead 2 oppr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -320,36 +320,6 @@
   </x:si>
   <x:si>
     <x:t>Details of Accounts successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Automatically Assign Users/Queues Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Leads Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of recent Leads displayed, select the appropriate Lead.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the Industry is set to equals Banking .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Industry is set to equals Banking .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Lead Details page, validate the Lead Owner.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Lead Owner is User:atif@transitusnexgen.com .</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -433,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J30" totalsRowShown="0">
-  <x:autoFilter ref="A1:J30"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J26" totalsRowShown="0">
+  <x:autoFilter ref="A1:J26"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -739,7 +709,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J30"/>
+  <x:dimension ref="A1:J26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -747,12 +717,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="44.550625000000004" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="59.840625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="72.840624999999989" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="75.840624999999989" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="68.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -1292,86 +1262,6 @@
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s"/>
-      <x:c r="F27" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s"/>
-      <x:c r="B28" s="0" t="s"/>
-      <x:c r="C28" s="0" t="s"/>
-      <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s"/>
-      <x:c r="F28" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s"/>
-      <x:c r="B29" s="0" t="s"/>
-      <x:c r="C29" s="0" t="s"/>
-      <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s"/>
-      <x:c r="F29" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s"/>
-      <x:c r="F30" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
